--- a/endpoints.xlsx
+++ b/endpoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahesh.walke\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A70AA0-4C60-4906-9A9C-4A0FEE7C8BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A31569-8C4F-4679-B341-939F0CF560F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD8E7474-4E06-4287-97C6-56C45292E580}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>body/parameter</t>
   </si>
   <si>
-    <t>createuser</t>
-  </si>
-  <si>
     <t>{
     "email": "utest@g.com",
     "fname": "fname",
@@ -65,14 +62,8 @@
 }</t>
   </si>
   <si>
-    <t>userlogin</t>
-  </si>
-  <si>
     <t>email=utest%40g.com
 pwd=1234</t>
-  </si>
-  <si>
-    <t>getalliproducts</t>
   </si>
   <si>
     <t>getall products 
@@ -89,28 +80,16 @@
 }</t>
   </si>
   <si>
-    <t>orderitem</t>
-  </si>
-  <si>
-    <t>getordereditems</t>
-  </si>
-  <si>
     <t>get ordered items</t>
   </si>
   <si>
     <t>email=utest@g.com</t>
   </si>
   <si>
-    <t>deleteproduct</t>
-  </si>
-  <si>
     <t>?email=test1@g.com&amp;item_id=4</t>
   </si>
   <si>
     <t>delete product</t>
-  </si>
-  <si>
-    <t>createeditproduct</t>
   </si>
   <si>
     <t>{
@@ -156,15 +135,44 @@
 with out of stock check
 internally updating quantity of product Item</t>
   </si>
+  <si>
+    <t>https://w4uyrz4t0f.execute-api.ap-south-1.amazonaws.com/stage1/createuser</t>
+  </si>
+  <si>
+    <t>https://w4uyrz4t0f.execute-api.ap-south-1.amazonaws.com/stage1/userlogin</t>
+  </si>
+  <si>
+    <t>https://w4uyrz4t0f.execute-api.ap-south-1.amazonaws.com/stage1/getalliproducts</t>
+  </si>
+  <si>
+    <t>https://w4uyrz4t0f.execute-api.ap-south-1.amazonaws.com/stage1/orderitem</t>
+  </si>
+  <si>
+    <t>https://w4uyrz4t0f.execute-api.ap-south-1.amazonaws.com/stage1/getordereditems</t>
+  </si>
+  <si>
+    <t>https://w4uyrz4t0f.execute-api.ap-south-1.amazonaws.com/stage1/deleteproduct</t>
+  </si>
+  <si>
+    <t>https://w4uyrz4t0f.execute-api.ap-south-1.amazonaws.com/stage1/createeditproduct</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -187,17 +195,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -513,19 +529,19 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.44140625" customWidth="1"/>
     <col min="4" max="4" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -539,119 +555,129 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
+      <c r="A2" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
+      <c r="A5" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
+      <c r="A8" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>20</v>
+      <c r="A9" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{FCCE2CE2-5BD2-4B94-A01A-F689CAD36F95}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{8F4D2D47-ADB5-48DB-87B5-C1D203AF93C8}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{AFA4863A-04FD-4C56-AE75-8CD59BEC0E09}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{73F3730C-65D7-4841-A857-6A2AA95E290D}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{230ECA85-B8B3-4182-B7E8-884ED4A2A999}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{F5E71F0A-E873-4763-965A-C686E73BD104}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{0A225AE1-78D6-431F-BC2C-B08FB6B018C6}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{03C9A826-1E2C-466A-817B-267B67F9CFAE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>